--- a/Times.xlsx
+++ b/Times.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>1397/06/18</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>1397/07/16</t>
+  </si>
+  <si>
+    <t>1397/07/17</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -458,7 +461,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1.5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Times.xlsx
+++ b/Times.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>1397/06/18</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>1397/07/17</t>
+  </si>
+  <si>
+    <t>1397/07/18</t>
+  </si>
+  <si>
+    <t>1397/07/21</t>
+  </si>
+  <si>
+    <t>1397/07/22</t>
   </si>
 </sst>
 </file>
@@ -380,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -472,6 +481,30 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/Times.xlsx
+++ b/Times.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>1397/06/18</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>1397/07/22</t>
+  </si>
+  <si>
+    <t>1397/08/10</t>
+  </si>
+  <si>
+    <t>1397/08/12</t>
   </si>
 </sst>
 </file>
@@ -389,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -505,6 +511,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/Times.xlsx
+++ b/Times.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>1397/06/18</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>1397/08/12</t>
+  </si>
+  <si>
+    <t>1397/08/19</t>
+  </si>
+  <si>
+    <t>1397/08/20</t>
+  </si>
+  <si>
+    <t>1397/08/24</t>
+  </si>
+  <si>
+    <t>1397/08/26</t>
   </si>
 </sst>
 </file>
@@ -395,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -525,6 +537,38 @@
       </c>
       <c r="B15" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Times.xlsx
+++ b/Times.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>1397/06/18</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>1397/08/26</t>
+  </si>
+  <si>
+    <t>1397/08/27</t>
+  </si>
+  <si>
+    <t>1397/08/28</t>
+  </si>
+  <si>
+    <t>1397/08/29</t>
   </si>
 </sst>
 </file>
@@ -407,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -568,6 +577,30 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
         <v>2</v>
       </c>
     </row>
